--- a/documentation/List of models (expanding grid cases).xlsx
+++ b/documentation/List of models (expanding grid cases).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Slava\Documents\kineticsim_reader\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE38A90-A5E0-4F8D-B7FD-F37CA2F0DEB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D6BB97-7774-4ECE-8434-37A7036755FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List of Existing Simulations" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="65">
   <si>
     <t>Available models (names)</t>
   </si>
@@ -216,6 +216,12 @@
   </si>
   <si>
     <t>rdn parameter</t>
+  </si>
+  <si>
+    <t>0 (proton-proton)</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -253,7 +259,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -290,8 +296,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -523,11 +535,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -604,7 +691,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -889,9 +995,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:N17"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N14" sqref="N14"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -906,7 +1012,7 @@
     <col min="11" max="11" width="18.85546875" style="4" customWidth="1"/>
     <col min="12" max="12" width="18" style="4" customWidth="1"/>
     <col min="13" max="13" width="17.5703125" style="4" customWidth="1"/>
-    <col min="14" max="14" width="20.5703125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="22.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -1413,47 +1519,47 @@
       </c>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="28">
         <v>2</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="28">
         <v>0</v>
       </c>
-      <c r="D14" s="2">
-        <v>1</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="D14" s="28">
+        <v>1</v>
+      </c>
+      <c r="E14" s="28" t="s">
         <v>31</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="K14" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="L14" s="2">
-        <v>1</v>
-      </c>
-      <c r="M14" s="2">
-        <v>1</v>
-      </c>
-      <c r="N14" s="2" t="s">
+      <c r="K14" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L14" s="8">
+        <v>1</v>
+      </c>
+      <c r="M14" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="N14" s="8" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1580,15 +1686,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0407642-E77C-4C5A-938D-32AB5490231C}">
-  <dimension ref="B1:E17"/>
+  <dimension ref="B1:F22"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="5" width="20.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1802,7 +1910,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="23">
         <v>15</v>
       </c>
@@ -1814,6 +1922,75 @@
       </c>
       <c r="E17" s="11">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="32">
+        <v>13</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="32">
+        <v>14</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="D21" s="2">
+        <v>3.35</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="33">
+        <v>15</v>
+      </c>
+      <c r="C22" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="D22" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="E22" s="10">
+        <v>1</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1825,8 +2002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08A53BB2-8F0E-4E9B-B934-CCB6EFD71097}">
   <dimension ref="B4:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1847,7 +2024,7 @@
       <c r="E4" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="25" t="s">
         <v>62</v>
       </c>
     </row>

--- a/documentation/List of models (expanding grid cases).xlsx
+++ b/documentation/List of models (expanding grid cases).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Slava\Documents\kineticsim_reader\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D6BB97-7774-4ECE-8434-37A7036755FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93155203-DD4E-4F41-9C9B-CB6A24FC4F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List of Existing Simulations" sheetId="1" r:id="rId1"/>
@@ -614,7 +614,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -695,16 +695,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
@@ -995,9 +992,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:N17"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M1" sqref="M1:M1048576"/>
+      <selection pane="topRight" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1005,7 +1002,7 @@
     <col min="1" max="1" width="64.42578125" style="4" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="4"/>
     <col min="3" max="4" width="14.140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="64" style="4" customWidth="1"/>
+    <col min="5" max="5" width="69.7109375" style="4" customWidth="1"/>
     <col min="6" max="8" width="27.5703125" style="4" customWidth="1"/>
     <col min="9" max="9" width="19.28515625" style="4" customWidth="1"/>
     <col min="10" max="10" width="17.5703125" style="4" customWidth="1"/>
@@ -1520,19 +1517,19 @@
       <c r="N13" s="3"/>
     </row>
     <row r="14" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="28">
+      <c r="B14" s="2">
         <v>2</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="2">
         <v>0</v>
       </c>
-      <c r="D14" s="28">
-        <v>1</v>
-      </c>
-      <c r="E14" s="28" t="s">
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F14" s="6" t="s">
@@ -1688,8 +1685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0407642-E77C-4C5A-938D-32AB5490231C}">
   <dimension ref="B1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1926,24 +1923,24 @@
     </row>
     <row r="18" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="30" t="s">
+      <c r="E19" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="31" t="s">
+      <c r="F19" s="30" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="32">
+      <c r="B20" s="31">
         <v>13</v>
       </c>
       <c r="C20" s="2">
@@ -1960,7 +1957,7 @@
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="32">
+      <c r="B21" s="31">
         <v>14</v>
       </c>
       <c r="C21" s="2">
@@ -1977,7 +1974,7 @@
       </c>
     </row>
     <row r="22" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="33">
+      <c r="B22" s="32">
         <v>15</v>
       </c>
       <c r="C22" s="10">
